--- a/DBF_INDEX.xlsx
+++ b/DBF_INDEX.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aceafdec048690e/Macro/PYTHON/bKML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{1E992234-86FD-45D1-98C0-37CC0320E662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E43E1D4-6E29-4B2A-9E32-332CA3FE4C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{610AA290-7D6F-4B93-85B2-87873E7E9AB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{610AA290-7D6F-4B93-85B2-87873E7E9AB4}"/>
   </bookViews>
   <sheets>
     <sheet name="FEA_CODE" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="612">
   <si>
     <t>ID</t>
   </si>
@@ -354,9 +354,6 @@
     <t>прим. к ПОПШ/ПРШ</t>
   </si>
   <si>
-    <t>Begin</t>
-  </si>
-  <si>
     <t>начало</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>конец</t>
   </si>
   <si>
-    <t>Excentric middle</t>
-  </si>
-  <si>
     <t>середина, эксцентричный</t>
   </si>
   <si>
@@ -381,15 +375,9 @@
     <t>area with</t>
   </si>
   <si>
-    <t>Excentric begin</t>
-  </si>
-  <si>
     <t>начало, эксцентричный</t>
   </si>
   <si>
-    <t>Excentric end</t>
-  </si>
-  <si>
     <t>конец, эксцентричный</t>
   </si>
   <si>
@@ -1879,6 +1867,21 @@
   </si>
   <si>
     <t>Junta soldadura Tubería con uniones T</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>excentric middle</t>
+  </si>
+  <si>
+    <t>excentric start</t>
+  </si>
+  <si>
+    <t>excentric end</t>
   </si>
 </sst>
 </file>
@@ -3117,9 +3120,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6485136D-6219-4383-A7C0-C528CA8A1CF1}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3148,31 +3154,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>156</v>
-      </c>
       <c r="K1" s="14" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3186,13 +3192,13 @@
         <v>16</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>16</v>
@@ -3203,7 +3209,7 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="18" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L2" s="19"/>
     </row>
@@ -3218,13 +3224,13 @@
         <v>27</v>
       </c>
       <c r="D3" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>27</v>
@@ -3235,7 +3241,7 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L3" s="10"/>
     </row>
@@ -3250,7 +3256,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E4" s="41" t="s">
         <v>5</v>
@@ -3265,7 +3271,7 @@
       </c>
       <c r="J4" s="8"/>
       <c r="K4" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L4" s="8"/>
     </row>
@@ -3280,31 +3286,31 @@
         <v>16</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -3318,13 +3324,13 @@
         <v>25</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E6" s="43" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>25</v>
@@ -3335,7 +3341,7 @@
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L6" s="6"/>
     </row>
@@ -3344,28 +3350,28 @@
         <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L7" s="6"/>
     </row>
@@ -3380,13 +3386,13 @@
         <v>29</v>
       </c>
       <c r="D8" s="78" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E8" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>29</v>
@@ -3397,7 +3403,7 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L8" s="10"/>
     </row>
@@ -3412,13 +3418,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="78" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>31</v>
@@ -3429,7 +3435,7 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="9" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L9" s="10"/>
     </row>
@@ -3474,7 +3480,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E11" s="43" t="s">
         <v>17</v>
@@ -3489,7 +3495,7 @@
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L11" s="6"/>
     </row>
@@ -3504,7 +3510,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="78" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E12" s="39" t="s">
         <v>17</v>
@@ -3519,7 +3525,7 @@
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L12" s="10"/>
     </row>
@@ -3534,31 +3540,31 @@
         <v>37</v>
       </c>
       <c r="D13" s="78" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3572,7 +3578,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="E14" s="39" t="s">
         <v>17</v>
@@ -3582,19 +3588,19 @@
         <v>35</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -3608,7 +3614,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>17</v>
@@ -3623,7 +3629,7 @@
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L15" s="10"/>
     </row>
@@ -3638,31 +3644,31 @@
         <v>43</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3676,7 +3682,7 @@
         <v>47</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>17</v>
@@ -3691,7 +3697,7 @@
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="9" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L17" s="10"/>
     </row>
@@ -3706,7 +3712,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>17</v>
@@ -3721,7 +3727,7 @@
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="9" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L18" s="10"/>
     </row>
@@ -3736,13 +3742,13 @@
         <v>16</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E19" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>16</v>
@@ -3753,7 +3759,7 @@
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L19" s="10"/>
     </row>
@@ -3768,13 +3774,13 @@
         <v>27</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>27</v>
@@ -3785,7 +3791,7 @@
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L20" s="10"/>
     </row>
@@ -3800,13 +3806,13 @@
         <v>27</v>
       </c>
       <c r="D21" s="78" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E21" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>27</v>
@@ -3817,7 +3823,7 @@
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="9" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L21" s="10"/>
     </row>
@@ -3832,13 +3838,13 @@
         <v>29</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>29</v>
@@ -3849,7 +3855,7 @@
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L22" s="10"/>
     </row>
@@ -3864,13 +3870,13 @@
         <v>16</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>16</v>
@@ -3881,7 +3887,7 @@
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L23" s="10"/>
     </row>
@@ -3896,13 +3902,13 @@
         <v>29</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>29</v>
@@ -3913,7 +3919,7 @@
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L24" s="10"/>
     </row>
@@ -3928,13 +3934,13 @@
         <v>16</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>16</v>
@@ -3945,7 +3951,7 @@
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L25" s="10"/>
     </row>
@@ -3960,13 +3966,13 @@
         <v>16</v>
       </c>
       <c r="D26" s="78" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>16</v>
@@ -3977,7 +3983,7 @@
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="9" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L26" s="10"/>
     </row>
@@ -3989,17 +3995,17 @@
         <v>50</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E27" s="45" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="46"/>
       <c r="G27" s="45" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H27" s="46"/>
       <c r="I27" s="11" t="s">
@@ -4007,7 +4013,7 @@
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="11" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L27" s="12"/>
     </row>
@@ -4022,7 +4028,7 @@
         <v>66</v>
       </c>
       <c r="D28" s="79" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>14</v>
@@ -4037,7 +4043,7 @@
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L28" s="8"/>
     </row>
@@ -4052,7 +4058,7 @@
         <v>70</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>14</v>
@@ -4062,19 +4068,19 @@
         <v>66</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>65</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -4088,7 +4094,7 @@
         <v>72</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>14</v>
@@ -4103,7 +4109,7 @@
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L30" s="8"/>
     </row>
@@ -4118,7 +4124,7 @@
         <v>68</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>14</v>
@@ -4133,7 +4139,7 @@
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L31" s="8"/>
     </row>
@@ -4148,7 +4154,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>14</v>
@@ -4163,7 +4169,7 @@
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L32" s="8"/>
     </row>
@@ -4178,7 +4184,7 @@
         <v>76</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>14</v>
@@ -4193,7 +4199,7 @@
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L33" s="8"/>
     </row>
@@ -4208,7 +4214,7 @@
         <v>72</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>14</v>
@@ -4223,7 +4229,7 @@
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L34" s="8"/>
     </row>
@@ -4238,7 +4244,7 @@
         <v>78</v>
       </c>
       <c r="D35" s="79" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E35" s="41" t="s">
         <v>14</v>
@@ -4253,7 +4259,7 @@
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L35" s="8"/>
     </row>
@@ -4268,7 +4274,7 @@
         <v>94</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E36" s="41" t="s">
         <v>14</v>
@@ -4283,7 +4289,7 @@
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L36" s="8"/>
     </row>
@@ -4298,7 +4304,7 @@
         <v>84</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>14</v>
@@ -4313,7 +4319,7 @@
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L37" s="8"/>
     </row>
@@ -4328,7 +4334,7 @@
         <v>82</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>14</v>
@@ -4343,7 +4349,7 @@
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L38" s="8"/>
     </row>
@@ -4358,7 +4364,7 @@
         <v>74</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>14</v>
@@ -4368,19 +4374,19 @@
         <v>72</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>71</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -4394,7 +4400,7 @@
         <v>60</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E40" s="41" t="s">
         <v>14</v>
@@ -4409,7 +4415,7 @@
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L40" s="8"/>
     </row>
@@ -4424,7 +4430,7 @@
         <v>80</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E41" s="41" t="s">
         <v>14</v>
@@ -4439,7 +4445,7 @@
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L41" s="8"/>
     </row>
@@ -4454,7 +4460,7 @@
         <v>21</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>5</v>
@@ -4469,7 +4475,7 @@
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L42" s="8"/>
     </row>
@@ -4484,7 +4490,7 @@
         <v>49</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E43" s="41" t="s">
         <v>5</v>
@@ -4499,7 +4505,7 @@
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L43" s="8"/>
     </row>
@@ -4514,7 +4520,7 @@
         <v>90</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E44" s="41" t="s">
         <v>5</v>
@@ -4529,7 +4535,7 @@
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L44" s="8"/>
     </row>
@@ -4544,7 +4550,7 @@
         <v>92</v>
       </c>
       <c r="D45" s="79" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="E45" s="41" t="s">
         <v>5</v>
@@ -4559,7 +4565,7 @@
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="L45" s="8"/>
     </row>
@@ -4574,7 +4580,7 @@
         <v>88</v>
       </c>
       <c r="D46" s="79" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E46" s="41" t="s">
         <v>5</v>
@@ -4589,7 +4595,7 @@
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="L46" s="8"/>
     </row>
@@ -4604,7 +4610,7 @@
         <v>86</v>
       </c>
       <c r="D47" s="80" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E47" s="43" t="s">
         <v>5</v>
@@ -4619,7 +4625,7 @@
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L47" s="6"/>
     </row>
@@ -4628,28 +4634,28 @@
         <v>705</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D48" s="80" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="44"/>
       <c r="G48" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L48" s="6"/>
     </row>
@@ -4664,7 +4670,7 @@
         <v>9</v>
       </c>
       <c r="D49" s="79" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E49" s="41" t="s">
         <v>5</v>
@@ -4679,7 +4685,7 @@
       </c>
       <c r="J49" s="17"/>
       <c r="K49" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L49" s="17"/>
     </row>
@@ -4694,7 +4700,7 @@
         <v>45</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E50" s="41" t="s">
         <v>5</v>
@@ -4709,7 +4715,7 @@
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L50" s="8"/>
     </row>
@@ -4724,7 +4730,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="80" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E51" s="43" t="s">
         <v>5</v>
@@ -4739,7 +4745,7 @@
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L51" s="6"/>
     </row>
@@ -4754,7 +4760,7 @@
         <v>7</v>
       </c>
       <c r="D52" s="79" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E52" s="41" t="s">
         <v>5</v>
@@ -4769,7 +4775,7 @@
       </c>
       <c r="J52" s="17"/>
       <c r="K52" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L52" s="17"/>
     </row>
@@ -4784,7 +4790,7 @@
         <v>23</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E53" s="41" t="s">
         <v>5</v>
@@ -4799,7 +4805,7 @@
       </c>
       <c r="J53" s="8"/>
       <c r="K53" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L53" s="8"/>
     </row>
@@ -4814,7 +4820,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E54" s="43" t="s">
         <v>5</v>
@@ -4829,7 +4835,7 @@
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L54" s="6"/>
     </row>
@@ -4844,31 +4850,31 @@
         <v>52</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E55" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>52</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -4882,7 +4888,7 @@
         <v>21</v>
       </c>
       <c r="D56" s="79" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E56" s="41" t="s">
         <v>5</v>
@@ -4897,7 +4903,7 @@
       </c>
       <c r="J56" s="8"/>
       <c r="K56" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L56" s="8"/>
     </row>
@@ -4912,7 +4918,7 @@
         <v>64</v>
       </c>
       <c r="D57" s="81" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E57" s="45" t="s">
         <v>53</v>
@@ -4927,7 +4933,7 @@
       </c>
       <c r="J57" s="12"/>
       <c r="K57" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L57" s="12"/>
     </row>
@@ -4942,13 +4948,13 @@
         <v>52</v>
       </c>
       <c r="D58" s="80" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E58" s="43" t="s">
         <v>53</v>
       </c>
       <c r="F58" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>52</v>
@@ -4960,13 +4966,13 @@
         <v>51</v>
       </c>
       <c r="J58" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -4980,13 +4986,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="80" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="E59" s="43" t="s">
         <v>53</v>
       </c>
       <c r="F59" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>52</v>
@@ -4998,13 +5004,13 @@
         <v>51</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -5018,13 +5024,13 @@
         <v>52</v>
       </c>
       <c r="D60" s="80" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E60" s="43" t="s">
         <v>53</v>
       </c>
       <c r="F60" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>52</v>
@@ -5036,13 +5042,13 @@
         <v>51</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -5056,13 +5062,13 @@
         <v>52</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>53</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>52</v>
@@ -5074,13 +5080,13 @@
         <v>51</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5094,13 +5100,13 @@
         <v>52</v>
       </c>
       <c r="D62" s="82" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E62" s="47" t="s">
         <v>53</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G62" s="20" t="s">
         <v>52</v>
@@ -5112,13 +5118,13 @@
         <v>51</v>
       </c>
       <c r="J62" s="21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K62" s="20" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5130,12 +5136,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E634C1D7-4D79-429C-93BB-E1D95F104344}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5158,10 +5166,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5175,10 +5183,10 @@
         <v>96</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5192,10 +5200,10 @@
         <v>96</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5209,10 +5217,10 @@
         <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5226,10 +5234,10 @@
         <v>96</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5243,10 +5251,10 @@
         <v>98</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5254,16 +5262,16 @@
         <v>135168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5277,10 +5285,10 @@
         <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5288,16 +5296,16 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="D9" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5305,16 +5313,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="D10" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5322,16 +5330,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>609</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5339,16 +5347,16 @@
         <v>2121</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5356,16 +5364,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5373,16 +5381,16 @@
         <v>130</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>610</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5390,16 +5398,16 @@
         <v>132</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>113</v>
+        <v>611</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5407,16 +5415,16 @@
         <v>102401</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5424,16 +5432,16 @@
         <v>512</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5441,16 +5449,16 @@
         <v>256</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" customFormat="1" x14ac:dyDescent="0.2">
@@ -5469,7 +5477,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FB802-8612-4127-AA9B-F6099D552193}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:E19"/>
@@ -5495,10 +5503,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -5506,16 +5514,16 @@
         <v>16777216</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D2" s="51" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -5523,16 +5531,16 @@
         <v>256</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D3" s="51" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E3" s="53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -5540,16 +5548,16 @@
         <v>131328</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -5557,16 +5565,16 @@
         <v>512</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E5" s="53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -5574,16 +5582,16 @@
         <v>131072</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -5591,16 +5599,16 @@
         <v>131076</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E7" s="53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -5608,16 +5616,16 @@
         <v>262144</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E8" s="53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -5625,16 +5633,16 @@
         <v>67108864</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -5642,16 +5650,16 @@
         <v>134217728</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D10" s="51" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -5659,16 +5667,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E11" s="53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -5676,16 +5684,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D12" s="51" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -5693,16 +5701,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E13" s="53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -5710,16 +5718,16 @@
         <v>256</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -5727,16 +5735,16 @@
         <v>479430</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E15" s="53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -5744,16 +5752,16 @@
         <v>33554432</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E16" s="53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -5761,16 +5769,16 @@
         <v>50331648</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -5778,16 +5786,16 @@
         <v>167772160</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -5807,12 +5815,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0570EB2-B8EE-4AA7-9903-E6F07184776E}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5834,7 +5844,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5842,13 +5852,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5856,13 +5866,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5870,13 +5880,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5884,13 +5894,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -5909,11 +5919,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864466D6-E5FB-4B0A-B644-C2ECEF4B3C21}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5932,176 +5941,176 @@
         <v>2</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F1" s="63" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="57" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C2" s="57" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="59" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C3" s="59" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D3" s="60" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="57" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="59" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C7" s="59" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D7" s="60" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="59" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B8" s="59" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B9" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -6112,36 +6121,36 @@
         <v>9</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F10" s="66" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="57" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B11" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D11" s="58" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -6152,56 +6161,56 @@
         <v>13</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D12" s="60" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="57" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B13" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D13" s="58" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="59" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B14" s="59" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F14" s="65" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -6215,33 +6224,33 @@
         <v>20</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="59" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B16" s="59" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D16" s="60" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F16" s="65" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -6252,36 +6261,36 @@
         <v>25</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="59" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D18" s="60" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G18" s="67" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -6292,16 +6301,16 @@
         <v>27</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D19" s="58" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="G19" s="68" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -6312,16 +6321,16 @@
         <v>29</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F20" s="65" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G20" s="65" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -6332,16 +6341,16 @@
         <v>31</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D21" s="58" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -6352,56 +6361,56 @@
         <v>33</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F22" s="69" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="G22" s="69" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="57" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B23" s="57" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D23" s="58" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F23" s="65" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G23" s="65" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="59" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B24" s="59" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D24" s="60" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G24" s="65" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -6412,36 +6421,36 @@
         <v>45</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G25" s="65" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="59" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B26" s="59" t="s">
         <v>47</v>
       </c>
       <c r="C26" s="59" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F26" s="65" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G26" s="65" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -6452,16 +6461,16 @@
         <v>49</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D27" s="58" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F27" s="65" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G27" s="65" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -6469,19 +6478,19 @@
         <v>50</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C28" s="59" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="60" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F28" s="65" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G28" s="65" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -6492,56 +6501,56 @@
         <v>52</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D29" s="58" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F29" s="65" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G29" s="65" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="59" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B30" s="59" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D30" s="60" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F30" s="65" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G30" s="65" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="57" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G31" s="65" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -6552,116 +6561,116 @@
         <v>64</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F32" s="65" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G32" s="65" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="57" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B33" s="57" t="s">
         <v>66</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D33" s="58" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G33" s="65" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="59" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B34" s="59" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D34" s="60" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F34" s="70" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G34" s="70" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="57" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B35" s="57" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F35" s="70" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="70" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="59" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B36" s="59" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D36" s="60" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F36" s="70" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G36" s="70" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="57" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F37" s="70" t="s">
         <v>26</v>
       </c>
       <c r="G37" s="70" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -6672,76 +6681,76 @@
         <v>72</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D38" s="60" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F38" s="70" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G38" s="70" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="57" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B39" s="57" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D39" s="58" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F39" s="70" t="s">
         <v>46</v>
       </c>
       <c r="G39" s="70" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="59" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B40" s="59" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C40" s="59" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D40" s="60" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F40" s="70" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G40" s="70" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="57" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B41" s="57" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D41" s="58" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F41" s="70" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G41" s="70" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -6755,53 +6764,53 @@
         <v>77</v>
       </c>
       <c r="D42" s="60" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G42" s="70" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="57" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D43" s="58" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F43" s="70" t="s">
         <v>34</v>
       </c>
       <c r="G43" s="70" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B44" s="59" t="s">
         <v>80</v>
       </c>
       <c r="C44" s="59" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D44" s="60" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G44" s="70" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -6815,13 +6824,13 @@
         <v>81</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F45" s="70" t="s">
         <v>40</v>
       </c>
       <c r="G45" s="70" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -6832,16 +6841,16 @@
         <v>84</v>
       </c>
       <c r="C46" s="59" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D46" s="60" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G46" s="70" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -6852,56 +6861,56 @@
         <v>86</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D47" s="58" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F47" s="70" t="s">
         <v>28</v>
       </c>
       <c r="G47" s="70" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="59" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B48" s="59" t="s">
         <v>88</v>
       </c>
       <c r="C48" s="59" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D48" s="60" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F48" s="70" t="s">
         <v>30</v>
       </c>
       <c r="G48" s="70" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="57" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B49" s="57" t="s">
         <v>90</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D49" s="58" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F49" s="70" t="s">
         <v>89</v>
       </c>
       <c r="G49" s="70" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -6912,16 +6921,16 @@
         <v>92</v>
       </c>
       <c r="C50" s="59" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D50" s="60" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F50" s="70" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G50" s="70" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -6932,316 +6941,316 @@
         <v>94</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D51" s="58" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F51" s="71" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G51" s="71" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="57" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D52" s="58" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F52" s="71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="59" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B53" s="59" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C53" s="59" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D53" s="60" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F53" s="64" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G53" s="64" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="57" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B54" s="57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F54" s="64" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G54" s="64" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="59" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D55" s="60" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F55" s="64" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G55" s="64" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="59" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D56" s="60" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F56" s="64" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G56" s="64" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="57" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D57" s="58" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F57" s="64" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G57" s="64" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="59" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B58" s="59" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C58" s="59" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D58" s="60" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F58" s="64" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G58" s="64" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="57" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D59" s="58" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F59" s="72" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G59" s="72" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="59" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D60" s="60" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F60" s="72" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G60" s="72" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="57" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C61" s="57" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D61" s="58" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F61" s="72" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G61" s="72" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="59" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B62" s="59" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D62" s="60" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F62" s="72" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G62" s="72" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="57" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C63" s="57" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D63" s="58" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F63" s="72" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G63" s="72" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="59" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D64" s="60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F64" s="72" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G64" s="72" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="57" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C65" s="57" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D65" s="58" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F65" s="72" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G65" s="72" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="59" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B66" s="59" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D66" s="60" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F66" s="72" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G66" s="72" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -7252,508 +7261,508 @@
         <v>25</v>
       </c>
       <c r="C67" s="57" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D67" s="58" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F67" s="72" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G67" s="72" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="59" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B68" s="59" t="s">
         <v>45</v>
       </c>
       <c r="C68" s="59" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D68" s="60" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F68" s="72" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G68" s="72" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="57" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C69" s="57" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D69" s="58" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F69" s="72" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G69" s="72" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="59" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B70" s="59" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D70" s="60" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F70" s="72" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G70" s="72" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" s="57" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C71" s="57" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D71" s="58" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F71" s="72" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G71" s="72" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="59" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B72" s="59" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C72" s="59" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D72" s="60" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F72" s="72" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G72" s="72" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="57" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C73" s="57" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D73" s="58" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F73" s="72" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="G73" s="72" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="59" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B74" s="59" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C74" s="59" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D74" s="60" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F74" s="72" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G74" s="72" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="57" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C75" s="57" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D75" s="58" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F75" s="72" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G75" s="72" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="59" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B76" s="59" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C76" s="59" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D76" s="60" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F76" s="72" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G76" s="72" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="57" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C77" s="57" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D77" s="58" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F77" s="72" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G77" s="72" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="59" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B78" s="59" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C78" s="59" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D78" s="60" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F78" s="72" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G78" s="72" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="57" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B79" s="57" t="s">
         <v>49</v>
       </c>
       <c r="C79" s="57" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D79" s="58" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F79" s="72" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G79" s="72" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="59" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B80" s="59" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C80" s="59" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D80" s="60" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F80" s="72" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G80" s="72" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="57" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B81" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C81" s="57" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D81" s="58" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F81" s="72" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G81" s="72" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="59" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B82" s="59" t="s">
         <v>54</v>
       </c>
       <c r="C82" s="59" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D82" s="60" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F82" s="73" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G82" s="73" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="57" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B83" s="57" t="s">
         <v>56</v>
       </c>
       <c r="C83" s="57" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D83" s="58" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F83" s="73" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G83" s="73" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="59" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B84" s="59" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C84" s="59" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D84" s="60" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F84" s="73" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G84" s="73" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="57" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C85" s="57" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D85" s="58" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F85" s="73" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G85" s="73" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="59" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B86" s="59" t="s">
         <v>57</v>
       </c>
       <c r="C86" s="59" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D86" s="60" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F86" s="73" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G86" s="73" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="57" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B87" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C87" s="57" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D87" s="58" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F87" s="73" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G87" s="73" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="61" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B88" s="61" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C88" s="61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D88" s="62" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F88" s="73" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G88" s="73" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F89" s="74" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G89" s="74" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F90" s="74" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G90" s="74" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F91" s="74" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G91" s="74" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F92" s="74" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G92" s="74" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F93" s="74" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G93" s="74" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F94" s="74" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G94" s="74" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F95" s="64" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G95" s="64" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F96" s="64" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G96" s="64" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F97" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="G97" s="64" t="s">
         <v>450</v>
-      </c>
-      <c r="G97" s="64" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="98" spans="6:7" x14ac:dyDescent="0.2">
@@ -7761,7 +7770,7 @@
         <v>95</v>
       </c>
       <c r="G98" s="64" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="99" spans="6:7" x14ac:dyDescent="0.2">
@@ -7769,63 +7778,63 @@
         <v>97</v>
       </c>
       <c r="G99" s="64" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="100" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F100" s="64" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G100" s="64" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="101" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F101" s="75" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="G101" s="75" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="102" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F102" s="75" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G102" s="75" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F103" s="64" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G103" s="64" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="104" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F104" s="64" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="G104" s="64" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="105" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F105" s="64" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="G105" s="64" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="106" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F106" s="76" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="G106" s="76" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>

--- a/DBF_INDEX.xlsx
+++ b/DBF_INDEX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9aceafdec048690e/Macro/PYTHON/bKML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5E43E1D4-6E29-4B2A-9E32-332CA3FE4C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{499AA303-8FAE-4877-8E7C-85B49E599414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{610AA290-7D6F-4B93-85B2-87873E7E9AB4}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="tmp" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FEA_CODE!$A$1:$L$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FEA_CODE!$A$1:$L$63</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">FEA_TYPE!$A$1:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">HAR_CODE1!$A$2:$C$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">HAR_CODE2!$A$2:$C$5</definedName>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="612">
   <si>
     <t>ID</t>
   </si>
@@ -3121,10 +3121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6485136D-6219-4383-A7C0-C528CA8A1CF1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3569,235 +3569,241 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="24">
-        <v>304</v>
+        <v>19726638</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="78" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E14" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="40"/>
+      <c r="F14" s="40" t="s">
+        <v>177</v>
+      </c>
       <c r="G14" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>34</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>393</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
-        <v>401</v>
+        <v>304</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" s="78" t="s">
-        <v>396</v>
+        <v>597</v>
       </c>
       <c r="E15" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="10"/>
+        <v>35</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>150</v>
+      </c>
       <c r="I15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>157</v>
+      </c>
       <c r="K15" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="L15" s="10"/>
+        <v>393</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="24">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>598</v>
+        <v>396</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>177</v>
-      </c>
+      <c r="F16" s="40"/>
       <c r="G16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>149</v>
-      </c>
+      <c r="H16" s="10"/>
       <c r="I16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>156</v>
-      </c>
+      <c r="J16" s="10"/>
       <c r="K16" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>254</v>
-      </c>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>401</v>
+        <v>598</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="40" t="s">
+        <v>177</v>
+      </c>
       <c r="G17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="I17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" s="10"/>
+        <v>40</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="K17" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="L17" s="10"/>
+        <v>396</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
-        <v>807</v>
+        <v>501</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="E18" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="40"/>
       <c r="G18" s="9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="9" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="9" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
-        <v>32869</v>
+        <v>807</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="40" t="s">
-        <v>177</v>
-      </c>
+      <c r="F19" s="40"/>
       <c r="G19" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J19" s="10"/>
       <c r="K19" s="9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
-        <v>32871</v>
+        <v>32869</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D20" s="78" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="E20" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="9" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="9" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="L20" s="10"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
-        <v>3228074087</v>
+        <v>32871</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>26</v>
@@ -3829,135 +3835,135 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="24">
-        <v>32969</v>
+        <v>3228074087</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="78" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
-        <v>3581198</v>
+        <v>32969</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="E23" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="9" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="L23" s="10"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="24">
-        <v>52887753</v>
+        <v>3581198</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D24" s="78" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="9" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="L24" s="10"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="24">
-        <v>1081016421</v>
+        <v>52887753</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D25" s="78" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="9" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="L25" s="10"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="24">
-        <v>32833637</v>
+        <v>1081016421</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>15</v>
@@ -3988,77 +3994,79 @@
       <c r="L26" s="10"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="26">
+      <c r="A27" s="24">
+        <v>32833637</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>371</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
         <v>601</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D28" s="81" t="s">
         <v>405</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E28" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="45" t="s">
+      <c r="F28" s="46"/>
+      <c r="G28" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="11" t="s">
+      <c r="H28" s="46"/>
+      <c r="I28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="11" t="s">
+      <c r="J28" s="12"/>
+      <c r="K28" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="L27" s="12"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="27">
-        <v>602</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="79" t="s">
-        <v>419</v>
-      </c>
-      <c r="E28" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="27">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>599</v>
+        <v>419</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>14</v>
@@ -4067,917 +4075,909 @@
       <c r="G29" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>153</v>
-      </c>
+      <c r="H29" s="8"/>
       <c r="I29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J29" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="J29" s="8"/>
       <c r="K29" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>429</v>
-      </c>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="27">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>435</v>
+        <v>599</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="8"/>
+        <v>66</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="I30" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J30" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="K30" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L30" s="8"/>
+        <v>419</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="27">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="27">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="7" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="7" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="7" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="27">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="7" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="7" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="7" t="s">
-        <v>190</v>
+        <v>368</v>
       </c>
       <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="27">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>435</v>
+        <v>190</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H34" s="8"/>
       <c r="I34" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="7" t="s">
-        <v>435</v>
+        <v>190</v>
       </c>
       <c r="L34" s="8"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="27">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D35" s="79" t="s">
-        <v>191</v>
+        <v>435</v>
       </c>
       <c r="E35" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="7" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H35" s="8"/>
       <c r="I35" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="7" t="s">
-        <v>191</v>
+        <v>435</v>
       </c>
       <c r="L35" s="8"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="27">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D36" s="79" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="E36" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H36" s="8"/>
       <c r="I36" s="7" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="L36" s="8"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="27">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H37" s="8"/>
       <c r="I37" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="27">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H38" s="8"/>
       <c r="I38" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L38" s="8"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="27">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>600</v>
+        <v>199</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>154</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H39" s="8"/>
       <c r="I39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>165</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="J39" s="8"/>
       <c r="K39" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>438</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="L39" s="8"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="27">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>410</v>
+        <v>600</v>
       </c>
       <c r="E40" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" s="8"/>
+        <v>72</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="I40" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J40" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>165</v>
+      </c>
       <c r="K40" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L40" s="8"/>
+        <v>435</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="27">
-        <v>808</v>
+        <v>627</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
       <c r="E41" s="41" t="s">
         <v>14</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="7" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="H41" s="8"/>
       <c r="I41" s="7" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="7" t="s">
-        <v>198</v>
+        <v>410</v>
       </c>
       <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="27">
-        <v>104</v>
+        <v>808</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>375</v>
+        <v>198</v>
       </c>
       <c r="E42" s="41" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="H42" s="8"/>
       <c r="I42" s="7" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="7" t="s">
-        <v>375</v>
+        <v>198</v>
       </c>
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="27">
-        <v>619</v>
+        <v>104</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D43" s="79" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="E43" s="41" t="s">
         <v>5</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="7" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="J43" s="8"/>
       <c r="K43" s="7" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="27">
-        <v>701</v>
+        <v>619</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="D44" s="79" t="s">
-        <v>209</v>
+        <v>403</v>
       </c>
       <c r="E44" s="41" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="7" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="7" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="7" t="s">
-        <v>209</v>
+        <v>403</v>
       </c>
       <c r="L44" s="8"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="27">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D45" s="79" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E45" s="41" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="27">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D46" s="79" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E46" s="41" t="s">
         <v>5</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J46" s="8"/>
       <c r="K46" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="27">
+        <v>703</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="25">
-        <v>704</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="80" t="s">
-        <v>203</v>
-      </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="44"/>
-      <c r="G47" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="L47" s="6"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="25">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="D48" s="80" t="s">
-        <v>445</v>
+        <v>203</v>
       </c>
       <c r="E48" s="43" t="s">
         <v>5</v>
       </c>
       <c r="F48" s="44"/>
       <c r="G48" s="5" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="5" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="25">
+        <v>705</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="80" t="s">
         <v>445</v>
       </c>
-      <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="27">
-        <v>801</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="8"/>
-      <c r="I49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="17"/>
-      <c r="K49" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L49" s="17"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="27">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D50" s="79" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="E50" s="41" t="s">
         <v>5</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="7" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H50" s="8"/>
       <c r="I50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="17"/>
+      <c r="K50" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L50" s="17"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="27">
+        <v>802</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="7" t="s">
+      <c r="C51" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="25">
+      <c r="E51" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" s="42"/>
+      <c r="G51" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="25">
         <v>804</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D52" s="80" t="s">
         <v>366</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E52" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="44"/>
-      <c r="G51" s="5" t="s">
+      <c r="F52" s="44"/>
+      <c r="G52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="5" t="s">
+      <c r="H52" s="6"/>
+      <c r="I52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="5" t="s">
+      <c r="J52" s="6"/>
+      <c r="K52" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="L51" s="6"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="27">
-        <v>805</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="79" t="s">
-        <v>361</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="42"/>
-      <c r="G52" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="17"/>
-      <c r="K52" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="L52" s="17"/>
+      <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="27">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E53" s="41" t="s">
         <v>5</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="7" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J53" s="17"/>
+      <c r="K53" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="27">
+        <v>810</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="7" t="s">
+      <c r="C54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="79" t="s">
         <v>378</v>
       </c>
-      <c r="L53" s="8"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="25">
-        <v>824</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="80" t="s">
-        <v>358</v>
-      </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="44"/>
-      <c r="G54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="L54" s="6"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="25">
-        <v>906</v>
+        <v>824</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>601</v>
+        <v>358</v>
       </c>
       <c r="E55" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="F55" s="44"/>
+      <c r="G55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="6"/>
+      <c r="I55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J55" s="6"/>
+      <c r="K55" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="25">
+        <v>906</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>601</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G56" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="H56" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I55" s="5" t="s">
+      <c r="I56" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="J56" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K56" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L56" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="27">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="27">
         <v>32872</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="79" t="s">
+      <c r="D57" s="79" t="s">
         <v>375</v>
       </c>
-      <c r="E56" s="41" t="s">
+      <c r="E57" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="42"/>
-      <c r="G56" s="7" t="s">
+      <c r="F57" s="42"/>
+      <c r="G57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="7" t="s">
+      <c r="H57" s="8"/>
+      <c r="I57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J56" s="8"/>
-      <c r="K56" s="7" t="s">
+      <c r="J57" s="8"/>
+      <c r="K57" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="L56" s="8"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="26">
+      <c r="L57" s="8"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="26">
         <v>811</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="81" t="s">
+      <c r="D58" s="81" t="s">
         <v>416</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E58" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="F57" s="46"/>
-      <c r="G57" s="11" t="s">
+      <c r="F58" s="46"/>
+      <c r="G58" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="11" t="s">
+      <c r="H58" s="12"/>
+      <c r="I58" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="11" t="s">
+      <c r="J58" s="12"/>
+      <c r="K58" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="L57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="25">
-        <v>901</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="80" t="s">
-        <v>602</v>
-      </c>
-      <c r="E58" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="F58" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="L58" s="6" t="s">
-        <v>311</v>
-      </c>
+      <c r="L58" s="12"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="25">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>51</v>
@@ -4986,7 +4986,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="80" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E59" s="43" t="s">
         <v>53</v>
@@ -4998,24 +4998,24 @@
         <v>52</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I59" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J59" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K59" s="5" t="s">
         <v>407</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="25">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>51</v>
@@ -5024,7 +5024,7 @@
         <v>52</v>
       </c>
       <c r="D60" s="80" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E60" s="43" t="s">
         <v>53</v>
@@ -5036,24 +5036,24 @@
         <v>52</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I60" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K60" s="5" t="s">
         <v>407</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="25">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>51</v>
@@ -5062,7 +5062,7 @@
         <v>52</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E61" s="43" t="s">
         <v>53</v>
@@ -5074,61 +5074,99 @@
         <v>52</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I61" s="5" t="s">
         <v>51</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K61" s="5" t="s">
         <v>407</v>
       </c>
       <c r="L61" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="25">
+        <v>904</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>605</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="L62" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
+    <row r="63" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="28">
         <v>905</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B63" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C63" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="82" t="s">
+      <c r="D63" s="82" t="s">
         <v>606</v>
       </c>
-      <c r="E62" s="47" t="s">
+      <c r="E63" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="F62" s="48" t="s">
+      <c r="F63" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G63" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H62" s="21" t="s">
+      <c r="H63" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="I62" s="20" t="s">
+      <c r="I63" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J62" s="21" t="s">
+      <c r="J63" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="K62" s="20" t="s">
+      <c r="K63" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="L62" s="21" t="s">
+      <c r="L63" s="21" t="s">
         <v>328</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L62" xr:uid="{6485136D-6219-4383-A7C0-C528CA8A1CF1}"/>
+  <autoFilter ref="A1:L63" xr:uid="{6485136D-6219-4383-A7C0-C528CA8A1CF1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
